--- a/templates/emergencyTrainingProgramError.xlsx
+++ b/templates/emergencyTrainingProgramError.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25785" windowHeight="11145"/>
+    <workbookView windowWidth="25545" windowHeight="8565"/>
   </bookViews>
   <sheets>
-    <sheet name="导入模板" sheetId="2" r:id="rId1"/>
+    <sheet name="应急队伍训练计划导入错误清单" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>应急队伍训练计划导入模板</t>
+    <t>应急队伍训练计划导入错误清单</t>
   </si>
   <si>
     <r>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="4"/>
